--- a/tests/databooks/databook_udt.xlsx
+++ b/tests/databooks/databook_udt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D15212B3-246B-8E48-85F3-2F0A204F6A6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06FB784F-378B-7643-92C1-E455991FEE6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23940" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/databooks/databook_udt.xlsx
+++ b/tests/databooks/databook_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06FB784F-378B-7643-92C1-E455991FEE6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{210C77EF-89B3-A74F-83A3-72FD4F6A27D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23940" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -50,43 +50,19 @@
     <t>Currently treated</t>
   </si>
   <si>
-    <t>Number tested throuh pharmacies</t>
-  </si>
-  <si>
-    <t>Number tested throuh clinics</t>
-  </si>
-  <si>
-    <t>Number tested throuh outreach programs</t>
-  </si>
-  <si>
-    <t>Testing yield at pharmacies</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Testing yield at clinics</t>
-  </si>
-  <si>
-    <t>Testing yield via outreach programs</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed at pharmacies</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed at clinics</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed via outreach programs</t>
-  </si>
-  <si>
-    <t>Loss-to-follow-up rate</t>
-  </si>
-  <si>
     <t>adults</t>
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>Annual number of new diagnoses</t>
+  </si>
+  <si>
+    <t>Annual number newly initiated onto treatment</t>
+  </si>
+  <si>
+    <t>Annual number lost to follow-up</t>
   </si>
 </sst>
 </file>
@@ -110,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,14 +99,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,26 +123,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,96 +138,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -703,10 +573,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -719,16 +589,16 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" activeCellId="2" sqref="A10 A13 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
@@ -852,7 +722,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -884,14 +754,15 @@
         <v>6</v>
       </c>
       <c r="E11" s="2">
-        <v>10000</v>
+        <f>500+200+300</f>
+        <v>1000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -923,14 +794,15 @@
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>5000</v>
+        <f>100+180+210</f>
+        <v>490</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -962,371 +834,43 @@
         <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>2000</v>
+        <f>240</f>
+        <v>240</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>adults</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4">
-        <v>-0.133333333333333</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>COUNTIF(E20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>AND(COUNTIF(E20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>AND(COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>COUNTIF(E29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>AND(COUNTIF(E29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="9" priority="21">
-      <formula>COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22">
-      <formula>AND(COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="7" priority="23">
-      <formula>COUNTIF(E35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="24">
-      <formula>AND(COUNTIF(E35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="5" priority="25">
-      <formula>COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="26">
-      <formula>AND(COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -1345,12 +889,9 @@
       <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B38 B35 B32 B29 B26 B23" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>"probability"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/databooks/databook_udt.xlsx
+++ b/tests/databooks/databook_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{210C77EF-89B3-A74F-83A3-72FD4F6A27D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3065C8F2-2927-694A-A114-7916475D5154}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="13160" windowHeight="13640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" activeCellId="2" sqref="A10 A13 A16"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,5 +895,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tests/databooks/databook_udt.xlsx
+++ b/tests/databooks/databook_udt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{210C77EF-89B3-A74F-83A3-72FD4F6A27D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAB3B-BB6C-489D-BE24-0ADE8731E3D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Stocks" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -29,6 +30,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>All people with condition</t>
   </si>
   <si>
@@ -48,12 +55,6 @@
   </si>
   <si>
     <t>Currently treated</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
   </si>
   <si>
     <t>Annual number of new diagnoses</t>
@@ -554,16 +555,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -589,29 +588,29 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" activeCellId="2" sqref="A10 A13 A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -624,17 +623,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>6000</v>
@@ -642,15 +641,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -663,17 +662,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
@@ -681,15 +680,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -702,17 +701,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>1800</v>
@@ -720,151 +719,177 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>AND(COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"number"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <v>2016</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F1" s="1">
         <v>2017</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G1" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <f>500+200+300</f>
-        <v>1000</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2016</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F4" s="1">
         <v>2017</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G4" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>490</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
-        <f>100+180+210</f>
-        <v>490</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>2016</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F7" s="1">
         <v>2017</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <f>240</f>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
         <v>240</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -890,7 +915,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/databook_udt.xlsx
+++ b/tests/databooks/databook_udt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3065C8F2-2927-694A-A114-7916475D5154}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAB3B-BB6C-489D-BE24-0ADE8731E3D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="13160" windowHeight="13640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Stocks" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -29,6 +30,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>All people with condition</t>
   </si>
   <si>
@@ -48,12 +55,6 @@
   </si>
   <si>
     <t>Currently treated</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
   </si>
   <si>
     <t>Annual number of new diagnoses</t>
@@ -554,16 +555,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -589,29 +588,29 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -624,17 +623,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>6000</v>
@@ -642,15 +641,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -663,17 +662,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
@@ -681,15 +680,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -702,17 +701,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>1800</v>
@@ -720,151 +719,177 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>AND(COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"number"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <v>2016</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F1" s="1">
         <v>2017</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G1" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <f>500+200+300</f>
-        <v>1000</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2016</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F4" s="1">
         <v>2017</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G4" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>490</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
-        <f>100+180+210</f>
-        <v>490</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>2016</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F7" s="1">
         <v>2017</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <f>240</f>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
         <v>240</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -890,11 +915,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>